--- a/11-小机床新电路板-stm32f429/使用到的引脚.xlsx
+++ b/11-小机床新电路板-stm32f429/使用到的引脚.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>motor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Coolant</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,6 +198,35 @@
   </si>
   <si>
     <t>准备当做脉冲电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2-SCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lcd/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SPI2-NSS</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motor/pluse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                        </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +279,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -281,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -312,80 +345,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -405,7 +373,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -684,15 +652,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q11"/>
+  <dimension ref="A2:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="L5" sqref="L5:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>0</v>
@@ -743,7 +711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,8 +728,8 @@
         <v>21</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="3" t="s">
-        <v>32</v>
+      <c r="G3" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -784,7 +752,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -804,26 +772,28 @@
         <v>26</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="M4" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -844,7 +814,7 @@
         <v>35</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>23</v>
@@ -860,7 +830,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -905,7 +875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -954,7 +924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1007,7 +977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1045,7 +1015,7 @@
         <v>19</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>39</v>
@@ -1054,7 +1024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1099,7 +1069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1129,6 +1099,11 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/11-小机床新电路板-stm32f429/使用到的引脚.xlsx
+++ b/11-小机床新电路板-stm32f429/使用到的引脚.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="48">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,7 @@
   </si>
   <si>
     <t>lcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lcd</t>
@@ -102,6 +103,97 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>USART1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAN8720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备留给串口模块2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAN8720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAN8720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAN8721</t>
+  </si>
+  <si>
+    <t>LAN8720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coolant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spindle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAN8720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAN8720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备当做脉冲电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2-SCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motor/pluse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>lcd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,122 +203,6 @@
   </si>
   <si>
     <t>lcd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lcd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lcd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>touch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>touch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAN8720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备留给串口模块2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAN8720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAN8720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAN8721</t>
-  </si>
-  <si>
-    <t>LAN8720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coolant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spindle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAN8720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAN8720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备当做脉冲电源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI2-SCK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">lcd/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SPI2-NSS</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motor/pluse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                        </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,16 +255,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +266,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,13 +325,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -654,13 +649,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:M5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="7" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>0</v>
@@ -711,56 +709,56 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="12" t="s">
-        <v>49</v>
+      <c r="G3" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="K3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>21</v>
+      <c r="M3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
+      <c r="B4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -768,288 +766,288 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>48</v>
+      <c r="J4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="11"/>
+      <c r="L5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="12"/>
       <c r="N5" s="1"/>
       <c r="O5" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+      <c r="P6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="1" t="s">
+      <c r="F7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="H8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+      <c r="N8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="H9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>19</v>
+      <c r="L9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="D10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>21</v>
+      <c r="J10" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
@@ -1061,38 +1059,38 @@
       <c r="N10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="15" t="s">
         <v>19</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1" t="s">
-        <v>23</v>
+      <c r="Q10" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
+      <c r="B11" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
+      <c r="D11" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
+      <c r="F11" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="K11" s="13" t="s">
         <v>21</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1100,9 +1098,9 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17">
       <c r="H14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
